--- a/作業日報/H27 PM演習作業報告書 4月21日 No.4.xlsx
+++ b/作業日報/H27 PM演習作業報告書 4月21日 No.4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>作業報告書</t>
     <rPh sb="0" eb="2">
@@ -126,26 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戸張　琢斗</t>
-    <rPh sb="0" eb="2">
-      <t>トバリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タクト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加藤　聖也</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>堀内研究室</t>
     <rPh sb="0" eb="5">
       <t>ホリウチケンキュウシツ</t>
@@ -153,13 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3時間</t>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PJ憲章作成・要件定義書作成</t>
     <rPh sb="2" eb="4">
       <t>ケンショウ</t>
@@ -180,7 +153,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16:３0～17:３0</t>
+    <t>6時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:30～19:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤　聖也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PJ憲章作成</t>
+    <rPh sb="2" eb="4">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書作成</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -984,7 +988,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E12"/>
+      <selection activeCell="F21" sqref="F21:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,7 +1025,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -1054,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1141,11 +1145,11 @@
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -1154,7 +1158,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="8"/>
@@ -1167,9 +1171,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="33"/>
@@ -1226,11 +1228,11 @@
       <c r="C15" s="28"/>
       <c r="D15" s="32" t="str">
         <f>D$10</f>
-        <v>16:３0～17:３0</v>
+        <v>16:30～19:30</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -1264,7 +1266,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="35" t="str">
         <f>A11</f>
-        <v>戸張　琢斗</v>
+        <v>加藤　聖也</v>
       </c>
       <c r="B18" s="32" t="str">
         <f t="shared" ref="B18" si="0">B$10</f>
@@ -1273,11 +1275,11 @@
       <c r="C18" s="28"/>
       <c r="D18" s="32" t="str">
         <f t="shared" ref="D18" si="1">D$10</f>
-        <v>16:３0～17:３0</v>
+        <v>16:30～19:30</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -1309,23 +1311,12 @@
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="str">
-        <f>A12</f>
-        <v>加藤　聖也</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f t="shared" ref="B21" si="2">B$10</f>
-        <v>堀内研究室</v>
-      </c>
+      <c r="A21" s="35"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="32" t="str">
-        <f t="shared" ref="D21" si="3">D$10</f>
-        <v>16:３0～17:３0</v>
-      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="32" t="s">
-        <v>16</v>
-      </c>
+      <c r="F21" s="32"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
